--- a/contentUtility/CreateQuizContent.xlsx
+++ b/contentUtility/CreateQuizContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roger.kibbe/Documents/Bixby_Capsules/capsule-sample-quiz/contentUtility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA5613F-D015-5E4C-9EE9-5337836A1883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208E52DF-A0BE-B24E-AF8C-0CF1C4133DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29720" yWindow="1120" windowWidth="35100" windowHeight="24940" xr2:uid="{1219A86E-B1BE-2748-BCB3-FE7073D4C6FD}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>States Quiz</t>
   </si>
   <si>
-    <t>states, united states</t>
-  </si>
-  <si>
     <t>us_map.png</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>What state is the largest agricultural producer?</t>
+  </si>
+  <si>
+    <t>states, state, united states</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +726,7 @@
     </row>
     <row r="2" spans="1:8" ht="253" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>26</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="10"/>
@@ -763,10 +763,10 @@
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="10"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="12">
         <v>7</v>
@@ -787,37 +787,37 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="3" t="str">
         <f>CONCATENATE("{ title: """,B3,""", tags: ",IF(ISBLANK(B4),"",CONCATENATE("[""",LOWER(SUBSTITUTE(B4,", ",""",""")),"""],")),IF(ISBLANK(B5),"",CONCATENATE(" image: { url: '/images/",B5,"' }, ")), IF(ISBLANK(B6),"",CONCATENATE("autoAdvance: ",B6,", ") )," questions: [")</f>
-        <v>{ title: "States Quiz", tags: ["states","united states"], image: { url: '/images/us_map.png' }, autoAdvance: 7,  questions: [</v>
+        <v>{ title: "States Quiz", tags: ["states","state","united states"], image: { url: '/images/us_map.png' }, autoAdvance: 7,  questions: [</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="13" t="str">
         <f t="shared" ref="F8:F9" si="0">IF(ISBLANK(B8),"",CONCATENATE("options: [""",SUBSTITUTE(B8,", ",""","""),"""], "))</f>
@@ -846,7 +846,7 @@
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -872,7 +872,7 @@
     </row>
     <row r="10" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -884,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="13" t="str">
         <f>IF(ISBLANK(B10),"",CONCATENATE("options: [""",SUBSTITUTE(B10,", ",""","""),"""], "))</f>
@@ -901,19 +901,19 @@
     </row>
     <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F17" si="3">IF(ISBLANK(B11),"",CONCATENATE("options: [""",SUBSTITUTE(B11,", ",""","""),"""], "))</f>
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="3"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -971,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="3"/>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="3"/>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1023,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="3"/>
@@ -1052,7 +1052,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="3"/>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="3"/>
@@ -1092,17 +1092,17 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
